--- a/inputXls/Subjects.xlsx
+++ b/inputXls/Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53D3738-0542-4F23-9B68-5AC9B72DF8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DBC718-057A-40BE-8AAF-B3405FF07B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="11295" xr2:uid="{BE70CD8F-F8C5-4442-A88C-4CE0D7B0C5F2}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="28800" windowHeight="11295" xr2:uid="{BE70CD8F-F8C5-4442-A88C-4CE0D7B0C5F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>matematika wajib</t>
+  </si>
+  <si>
+    <t>matematika peminatan</t>
+  </si>
+  <si>
+    <t>fisika</t>
+  </si>
+  <si>
+    <t>lintas minat fisika</t>
+  </si>
+  <si>
+    <t>kimia</t>
+  </si>
+  <si>
+    <t>lintas minat kimia</t>
+  </si>
+  <si>
+    <t>sejarah indonesia</t>
+  </si>
+  <si>
+    <t>sejarah peminatan</t>
+  </si>
+  <si>
+    <t>bahasa arab</t>
+  </si>
+  <si>
+    <t>alquran hadist</t>
+  </si>
+  <si>
+    <t>aqidah akhlak</t>
+  </si>
+  <si>
+    <t>fiqih</t>
+  </si>
+  <si>
+    <t>bahasa inggris</t>
+  </si>
+  <si>
+    <t>bahasa indonesia</t>
+  </si>
+  <si>
+    <t>sejarah kebudayaan islam</t>
+  </si>
+  <si>
+    <t>biologi</t>
+  </si>
+  <si>
+    <t>lintas minat biologi</t>
+  </si>
+  <si>
+    <t>ekonomi</t>
+  </si>
+  <si>
+    <t>lintas minat ekonomi</t>
+  </si>
+  <si>
+    <t>sosiologi</t>
+  </si>
+  <si>
+    <t>lintas minat sosiologi</t>
+  </si>
+  <si>
+    <t>geografi</t>
+  </si>
+  <si>
+    <t>seni budaya</t>
+  </si>
+  <si>
+    <t>prakarya</t>
+  </si>
+  <si>
+    <t>penjas</t>
+  </si>
+  <si>
+    <t>pkn</t>
   </si>
 </sst>
 </file>
@@ -56,10 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,11 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,13 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753BAE5-5254-49AA-AAB9-0C56081EEFAE}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -417,7 +499,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>